--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X1 at 4200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X1 at 4200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\21Sept2013_Xining_Physioflow_X1X4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C12DBC3-DE49-43AF-8AC2-30CA304BFACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,6 +241,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -274,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,12 +568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U68" sqref="U68"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,7 +5746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5707,7 +5758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X1 at 4200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X1 at 4200.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\21Sept2013_Xining_Physioflow_X1X4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C12DBC3-DE49-43AF-8AC2-30CA304BFACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="11940" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>X1</t>
   </si>
@@ -104,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 4200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>135w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>165w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -170,22 +135,133 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 4200</t>
+  </si>
+  <si>
+    <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>135w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
-    <t>ABG @ rest</t>
+    <t>165w</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,25 +269,273 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,33 +543,1603 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19.26</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.81</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.17</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42732583"/>
+        <c:axId val="847443823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42732583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847443823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847443823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42732583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>178435</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15494635" y="1581785"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,7 +2185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,26 +2218,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,23 +2253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,25 +2423,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="U29" sqref="U29:AI29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -603,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -662,52 +2523,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -724,12 +2585,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.25969907407407405</v>
+        <v>0.259699074074074</v>
       </c>
       <c r="C6">
         <v>93</v>
@@ -741,7 +2602,7 @@
         <v>8.35</v>
       </c>
       <c r="F6">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="G6">
         <v>68</v>
@@ -792,12 +2653,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.25981481481481483</v>
+        <v>0.259814814814815</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -860,12 +2721,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.25993055555555555</v>
+        <v>0.259930555555556</v>
       </c>
       <c r="C8">
         <v>88</v>
@@ -877,7 +2738,7 @@
         <v>7.91</v>
       </c>
       <c r="F8">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G8">
         <v>68</v>
@@ -928,12 +2789,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.26004629629629633</v>
+        <v>0.260046296296296</v>
       </c>
       <c r="C9">
         <v>89</v>
@@ -981,7 +2842,7 @@
         <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -999,12 +2860,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.26016203703703705</v>
+        <v>0.260162037037037</v>
       </c>
       <c r="C10">
         <v>91</v>
@@ -1067,12 +2928,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.26027777777777777</v>
+        <v>0.260277777777778</v>
       </c>
       <c r="C11">
         <v>93</v>
@@ -1135,12 +2996,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2603935185185185</v>
+        <v>0.260393518518518</v>
       </c>
       <c r="C12">
         <v>97</v>
@@ -1152,7 +3013,7 @@
         <v>8.57</v>
       </c>
       <c r="F12">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="G12">
         <v>68</v>
@@ -1203,12 +3064,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.26050925925925927</v>
+        <v>0.260509259259259</v>
       </c>
       <c r="C13">
         <v>95</v>
@@ -1220,7 +3081,7 @@
         <v>8.49</v>
       </c>
       <c r="F13">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="G13">
         <v>68</v>
@@ -1271,9 +3132,9 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
         <v>0.260625</v>
@@ -1285,7 +3146,7 @@
         <v>87</v>
       </c>
       <c r="E14">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="F14">
         <v>4.62</v>
@@ -1339,12 +3200,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26074074074074077</v>
+        <v>0.260740740740741</v>
       </c>
       <c r="C15">
         <v>96</v>
@@ -1407,12 +3268,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.26085648148148149</v>
+        <v>0.260856481481481</v>
       </c>
       <c r="C16">
         <v>93</v>
@@ -1475,12 +3336,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.26097222222222222</v>
+        <v>0.260972222222222</v>
       </c>
       <c r="C17">
         <v>93</v>
@@ -1543,12 +3404,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.26108796296296294</v>
+        <v>0.261087962962963</v>
       </c>
       <c r="C18">
         <v>99</v>
@@ -1611,12 +3472,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.26120370370370372</v>
+        <v>0.261203703703704</v>
       </c>
       <c r="C19">
         <v>89</v>
@@ -1679,12 +3540,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.26131944444444444</v>
+        <v>0.261319444444444</v>
       </c>
       <c r="C20">
         <v>86</v>
@@ -1747,12 +3608,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.26143518518518521</v>
+        <v>0.261435185185185</v>
       </c>
       <c r="C21">
         <v>89</v>
@@ -1815,12 +3676,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.26155092592592594</v>
+        <v>0.261550925925926</v>
       </c>
       <c r="C22">
         <v>91</v>
@@ -1883,12 +3744,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.26166666666666666</v>
+        <v>0.261666666666667</v>
       </c>
       <c r="C23">
         <v>89</v>
@@ -1897,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="E23">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="F23">
         <v>4.75</v>
@@ -1951,12 +3812,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.26178240740740738</v>
+        <v>0.261782407407407</v>
       </c>
       <c r="C24">
         <v>93</v>
@@ -1968,7 +3829,7 @@
         <v>9.02</v>
       </c>
       <c r="F24">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="G24">
         <v>70</v>
@@ -2019,12 +3880,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.26189814814814816</v>
+        <v>0.261898148148148</v>
       </c>
       <c r="C25">
         <v>93</v>
@@ -2036,7 +3897,7 @@
         <v>9.02</v>
       </c>
       <c r="F25">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="G25">
         <v>70</v>
@@ -2087,12 +3948,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.26201388888888888</v>
+        <v>0.262013888888889</v>
       </c>
       <c r="C26">
         <v>93</v>
@@ -2101,7 +3962,7 @@
         <v>92</v>
       </c>
       <c r="E26">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="F26">
         <v>4.8</v>
@@ -2155,12 +4016,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.26212962962962966</v>
+        <v>0.26212962962963</v>
       </c>
       <c r="C27">
         <v>98</v>
@@ -2169,10 +4030,10 @@
         <v>91</v>
       </c>
       <c r="E27">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F27">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="G27">
         <v>68</v>
@@ -2223,12 +4084,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.26224537037037038</v>
+        <v>0.26224537037037</v>
       </c>
       <c r="C28">
         <v>97</v>
@@ -2291,12 +4152,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.2623611111111111</v>
+        <v>0.262361111111111</v>
       </c>
       <c r="C29">
         <v>97</v>
@@ -2344,35 +4205,35 @@
         <v>42</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U29" s="2">
         <f>AVERAGE(C8:C29)</f>
-        <v>92.909090909090907</v>
+        <v>92.9090909090909</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" ref="V29:AI29" si="0">AVERAGE(D8:D29)</f>
-        <v>88.272727272727266</v>
+        <v>88.2727272727273</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>8.2918181818181846</v>
+        <v>8.29181818181818</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="0"/>
-        <v>4.6163636363636362</v>
+        <v>4.61636363636364</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="0"/>
-        <v>68.227272727272734</v>
+        <v>68.2272727272727</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="0"/>
-        <v>359.54545454545456</v>
+        <v>359.545454545455</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="0"/>
-        <v>175.63636363636363</v>
+        <v>175.636363636364</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="0"/>
@@ -2380,23 +4241,23 @@
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="0"/>
-        <v>87.954545454545453</v>
+        <v>87.9545454545455</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="0"/>
-        <v>128.59090909090909</v>
+        <v>128.590909090909</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="0"/>
-        <v>973.22727272727275</v>
+        <v>973.227272727273</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="0"/>
-        <v>1747.9545454545455</v>
+        <v>1747.95454545455</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="0"/>
-        <v>6.4713636363636349</v>
+        <v>6.47136363636363</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="0"/>
@@ -2404,15 +4265,15 @@
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="0"/>
-        <v>42.454545454545453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42.4545454545455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.26247685185185182</v>
+        <v>0.262476851851852</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -2475,12 +4336,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.2625925925925926</v>
+        <v>0.262592592592593</v>
       </c>
       <c r="C31">
         <v>99</v>
@@ -2489,7 +4350,7 @@
         <v>94</v>
       </c>
       <c r="E31">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="F31">
         <v>5.22</v>
@@ -2543,12 +4404,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.26270833333333332</v>
+        <v>0.262708333333333</v>
       </c>
       <c r="C32">
         <v>98</v>
@@ -2611,12 +4472,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.2628240740740741</v>
+        <v>0.262824074074074</v>
       </c>
       <c r="C33">
         <v>103</v>
@@ -2679,12 +4540,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.26293981481481482</v>
+        <v>0.262939814814815</v>
       </c>
       <c r="C34">
         <v>109</v>
@@ -2747,12 +4608,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.26305555555555554</v>
+        <v>0.263055555555556</v>
       </c>
       <c r="C35">
         <v>115</v>
@@ -2815,12 +4676,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.26317129629629626</v>
+        <v>0.263171296296296</v>
       </c>
       <c r="C36">
         <v>125</v>
@@ -2868,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -2886,12 +4747,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.26328703703703704</v>
+        <v>0.263287037037037</v>
       </c>
       <c r="C37">
         <v>128</v>
@@ -2954,12 +4815,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.26340277777777776</v>
+        <v>0.263402777777778</v>
       </c>
       <c r="C38">
         <v>127</v>
@@ -3022,12 +4883,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.26351851851851854</v>
+        <v>0.263518518518519</v>
       </c>
       <c r="C39">
         <v>127</v>
@@ -3090,12 +4951,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.26363425925925926</v>
+        <v>0.263634259259259</v>
       </c>
       <c r="C40">
         <v>125</v>
@@ -3158,12 +5019,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.26374999999999998</v>
+        <v>0.26375</v>
       </c>
       <c r="C41">
         <v>123</v>
@@ -3226,12 +5087,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.26386574074074071</v>
+        <v>0.263865740740741</v>
       </c>
       <c r="C42">
         <v>124</v>
@@ -3294,12 +5155,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.26398148148148148</v>
+        <v>0.263981481481481</v>
       </c>
       <c r="C43">
         <v>124</v>
@@ -3362,12 +5223,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.26409722222222221</v>
+        <v>0.264097222222222</v>
       </c>
       <c r="C44">
         <v>123</v>
@@ -3430,12 +5291,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.26421296296296298</v>
+        <v>0.264212962962963</v>
       </c>
       <c r="C45">
         <v>124</v>
@@ -3498,12 +5359,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.2643287037037037</v>
+        <v>0.264328703703704</v>
       </c>
       <c r="C46">
         <v>125</v>
@@ -3566,12 +5427,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.26444444444444443</v>
+        <v>0.264444444444444</v>
       </c>
       <c r="C47">
         <v>126</v>
@@ -3634,12 +5495,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.26456018518518515</v>
+        <v>0.264560185185185</v>
       </c>
       <c r="C48">
         <v>128</v>
@@ -3702,12 +5563,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.26467592592592593</v>
+        <v>0.264675925925926</v>
       </c>
       <c r="C49">
         <v>130</v>
@@ -3770,12 +5631,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.2647916666666667</v>
+        <v>0.264791666666667</v>
       </c>
       <c r="C50">
         <v>129</v>
@@ -3838,12 +5699,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.26490740740740742</v>
+        <v>0.264907407407407</v>
       </c>
       <c r="C51">
         <v>131</v>
@@ -3906,12 +5767,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.26502314814814815</v>
+        <v>0.265023148148148</v>
       </c>
       <c r="C52">
         <v>133</v>
@@ -3959,7 +5820,7 @@
         <v>37</v>
       </c>
       <c r="S52" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -3977,12 +5838,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.26513888888888887</v>
+        <v>0.265138888888889</v>
       </c>
       <c r="C53">
         <v>136</v>
@@ -3991,10 +5852,10 @@
         <v>120</v>
       </c>
       <c r="E53">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="F53">
-        <v>9.1300000000000008</v>
+        <v>9.13</v>
       </c>
       <c r="G53">
         <v>77</v>
@@ -4045,12 +5906,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.26525462962962965</v>
+        <v>0.26525462962963</v>
       </c>
       <c r="C54">
         <v>140</v>
@@ -4113,12 +5974,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.26537037037037037</v>
+        <v>0.26537037037037</v>
       </c>
       <c r="C55">
         <v>143</v>
@@ -4181,12 +6042,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.26548611111111114</v>
+        <v>0.265486111111111</v>
       </c>
       <c r="C56">
         <v>145</v>
@@ -4195,7 +6056,7 @@
         <v>124</v>
       </c>
       <c r="E56">
-        <v>17.989999999999998</v>
+        <v>17.99</v>
       </c>
       <c r="F56">
         <v>10.02</v>
@@ -4249,12 +6110,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.26560185185185187</v>
+        <v>0.265601851851852</v>
       </c>
       <c r="C57">
         <v>144</v>
@@ -4317,12 +6178,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.26571759259259259</v>
+        <v>0.265717592592593</v>
       </c>
       <c r="C58">
         <v>146</v>
@@ -4385,12 +6246,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.26583333333333331</v>
+        <v>0.265833333333333</v>
       </c>
       <c r="C59">
         <v>148</v>
@@ -4399,7 +6260,7 @@
         <v>128</v>
       </c>
       <c r="E59">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="F59">
         <v>10.61</v>
@@ -4438,7 +6299,7 @@
         <v>45</v>
       </c>
       <c r="S59" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4456,12 +6317,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.26594907407407409</v>
+        <v>0.265949074074074</v>
       </c>
       <c r="C60">
         <v>151</v>
@@ -4470,7 +6331,7 @@
         <v>127</v>
       </c>
       <c r="E60">
-        <v>19.260000000000002</v>
+        <v>19.26</v>
       </c>
       <c r="F60">
         <v>10.72</v>
@@ -4524,12 +6385,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.26606481481481481</v>
+        <v>0.266064814814815</v>
       </c>
       <c r="C61">
         <v>153</v>
@@ -4592,12 +6453,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.26618055555555559</v>
+        <v>0.266180555555556</v>
       </c>
       <c r="C62">
         <v>154</v>
@@ -4660,12 +6521,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.26629629629629631</v>
+        <v>0.266296296296296</v>
       </c>
       <c r="C63">
         <v>155</v>
@@ -4728,12 +6589,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.26641203703703703</v>
+        <v>0.266412037037037</v>
       </c>
       <c r="C64">
         <v>156</v>
@@ -4796,12 +6657,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.26652777777777775</v>
+        <v>0.266527777777778</v>
       </c>
       <c r="C65">
         <v>158</v>
@@ -4810,7 +6671,7 @@
         <v>127</v>
       </c>
       <c r="E65">
-        <v>20.190000000000001</v>
+        <v>20.19</v>
       </c>
       <c r="F65">
         <v>11.24</v>
@@ -4864,12 +6725,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.26664351851851853</v>
+        <v>0.266643518518519</v>
       </c>
       <c r="C66">
         <v>160</v>
@@ -4932,12 +6793,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.26675925925925925</v>
+        <v>0.266759259259259</v>
       </c>
       <c r="C67">
         <v>160</v>
@@ -5000,12 +6861,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.26687500000000003</v>
+        <v>0.266875</v>
       </c>
       <c r="C68">
         <v>161</v>
@@ -5053,7 +6914,7 @@
         <v>51</v>
       </c>
       <c r="S68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C59:C68)</f>
@@ -5065,11 +6926,11 @@
       </c>
       <c r="W68" s="2">
         <f t="shared" si="1"/>
-        <v>19.905000000000001</v>
+        <v>19.905</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="1"/>
-        <v>11.082999999999998</v>
+        <v>11.083</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="1"/>
@@ -5085,7 +6946,7 @@
       </c>
       <c r="AB68" s="2">
         <f t="shared" si="1"/>
-        <v>145.69999999999999</v>
+        <v>145.7</v>
       </c>
       <c r="AC68" s="2">
         <f t="shared" si="1"/>
@@ -5093,7 +6954,7 @@
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="1"/>
-        <v>157.80000000000001</v>
+        <v>157.8</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="1"/>
@@ -5105,7 +6966,7 @@
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="1"/>
-        <v>15.536000000000001</v>
+        <v>15.536</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="1"/>
@@ -5116,12 +6977,12 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.26699074074074075</v>
+        <v>0.266990740740741</v>
       </c>
       <c r="C69">
         <v>161</v>
@@ -5130,7 +6991,7 @@
         <v>125</v>
       </c>
       <c r="E69">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
       <c r="F69">
         <v>11.32</v>
@@ -5184,12 +7045,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.26710648148148147</v>
+        <v>0.267106481481481</v>
       </c>
       <c r="C70">
         <v>162</v>
@@ -5198,7 +7059,7 @@
         <v>121</v>
       </c>
       <c r="E70">
-        <v>19.690000000000001</v>
+        <v>19.69</v>
       </c>
       <c r="F70">
         <v>10.97</v>
@@ -5237,7 +7098,7 @@
         <v>49</v>
       </c>
       <c r="S70" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -5255,12 +7116,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.26722222222222219</v>
+        <v>0.267222222222222</v>
       </c>
       <c r="C71">
         <v>164</v>
@@ -5269,7 +7130,7 @@
         <v>116</v>
       </c>
       <c r="E71">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="F71">
         <v>10.61</v>
@@ -5323,12 +7184,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.26733796296296297</v>
+        <v>0.267337962962963</v>
       </c>
       <c r="C72">
         <v>164</v>
@@ -5374,6 +7235,9 @@
       </c>
       <c r="Q72">
         <v>55</v>
+      </c>
+      <c r="S72" t="s">
+        <v>46</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -5391,12 +7255,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.26745370370370369</v>
+        <v>0.267453703703704</v>
       </c>
       <c r="C73">
         <v>162</v>
@@ -5444,51 +7308,51 @@
         <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="U73" s="2">
         <f>AVERAGE(C71:C77)</f>
-        <v>156.14285714285714</v>
+        <v>156.142857142857</v>
       </c>
       <c r="V73" s="2">
         <f t="shared" ref="V73:AI73" si="2">AVERAGE(D71:D77)</f>
-        <v>117.71428571428571</v>
+        <v>117.714285714286</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="2"/>
-        <v>18.565714285714286</v>
+        <f>AVERAGE(E70:E73)</f>
+        <v>19.835</v>
       </c>
       <c r="X73" s="2">
         <f t="shared" si="2"/>
-        <v>10.337142857142855</v>
+        <v>10.3371428571429</v>
       </c>
       <c r="Y73" s="2">
         <f t="shared" si="2"/>
-        <v>76.285714285714292</v>
+        <v>76.2857142857143</v>
       </c>
       <c r="Z73" s="2">
         <f t="shared" si="2"/>
-        <v>230.14285714285714</v>
+        <v>230.142857142857</v>
       </c>
       <c r="AA73" s="2">
         <f t="shared" si="2"/>
-        <v>277.85714285714283</v>
+        <v>277.857142857143</v>
       </c>
       <c r="AB73" s="2">
         <f t="shared" si="2"/>
-        <v>145.71428571428572</v>
+        <v>145.714285714286</v>
       </c>
       <c r="AC73" s="2">
         <f t="shared" si="2"/>
-        <v>87.428571428571431</v>
+        <v>87.4285714285714</v>
       </c>
       <c r="AD73" s="2">
         <f t="shared" si="2"/>
-        <v>153.14285714285714</v>
+        <v>153.142857142857</v>
       </c>
       <c r="AE73" s="2">
         <f t="shared" si="2"/>
-        <v>446.85714285714283</v>
+        <v>446.857142857143</v>
       </c>
       <c r="AF73" s="2">
         <f t="shared" si="2"/>
@@ -5496,7 +7360,7 @@
       </c>
       <c r="AG73" s="2">
         <f t="shared" si="2"/>
-        <v>14.488571428571431</v>
+        <v>14.4885714285714</v>
       </c>
       <c r="AH73" s="2">
         <f t="shared" si="2"/>
@@ -5507,12 +7371,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.26756944444444447</v>
+        <v>0.267569444444444</v>
       </c>
       <c r="C74">
         <v>155</v>
@@ -5575,12 +7439,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>0.26768518518518519</v>
+        <v>0.267685185185185</v>
       </c>
       <c r="C75">
         <v>153</v>
@@ -5589,7 +7453,7 @@
         <v>122</v>
       </c>
       <c r="E75">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="F75">
         <v>10.48</v>
@@ -5628,12 +7492,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>0.26780092592592591</v>
+        <v>0.267800925925926</v>
       </c>
       <c r="C76">
         <v>152</v>
@@ -5642,7 +7506,7 @@
         <v>119</v>
       </c>
       <c r="E76">
-        <v>18.170000000000002</v>
+        <v>18.17</v>
       </c>
       <c r="F76">
         <v>10.11</v>
@@ -5681,12 +7545,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>0.26791666666666664</v>
+        <v>0.267916666666667</v>
       </c>
       <c r="C77">
         <v>143</v>
@@ -5734,37 +7598,71 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <f>AVERAGE(E80:E83)</f>
+        <v>19.835</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80">
+        <v>19.69</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83">
+        <v>20.57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>